--- a/dataekspor3.xlsx
+++ b/dataekspor3.xlsx
@@ -1081,8 +1081,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F4917"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A4892" workbookViewId="0">
+      <selection activeCell="A4913" sqref="A4913:F4917"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1114,7 +1114,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>1</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>1</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>1</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>1</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>1</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>1</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>1</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>1</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>1</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>1</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>1</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>1</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>1</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>1</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>1</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>1</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>1</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>1</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>1</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>1</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>1</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>1</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>1</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>1</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>1</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>1</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>1</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>1</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>1</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>1</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>1</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>1</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>1</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>1</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>1</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>1</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>1</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>1</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>1</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>1</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>1</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>1</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>1</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>1</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>1</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>1</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>1</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>1</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>1</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>1</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>1</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>1</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>1</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>1</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>1</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>1</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>1</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>1</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>1</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>1</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>1</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>1</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>1</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>1</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>1</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>1</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>1</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>1</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>1</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>1</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>1</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>1</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>1</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>1</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>1</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>1</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>1</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>1</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>1</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>1</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>1</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>1</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>1</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>1</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>1</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>1</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>1</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>1</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>1</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>1</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>1</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>1</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>1</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>1</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>1</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>1</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>1</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>1</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>1</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>1</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>1</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>1</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>1</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>1</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>1</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>1</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>1</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>1</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>1</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>1</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>1</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>1</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>1</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>1</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>1</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>1</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>1</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>1</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>1</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>1</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>1</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>1</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>1</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>1</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>1</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>1</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>1</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>1</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>1</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>1</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>1</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>1</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>1</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>1</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>1</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>1</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>1</v>
       </c>
@@ -96834,7 +96834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4788" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4788" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4788">
         <v>25</v>
       </c>
@@ -96854,7 +96854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4789" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4789" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4789">
         <v>25</v>
       </c>
@@ -96874,7 +96874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4790" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4790" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4790">
         <v>25</v>
       </c>
@@ -96894,7 +96894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4791" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4791" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4791">
         <v>25</v>
       </c>
@@ -96914,7 +96914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4792" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4792" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4792">
         <v>25</v>
       </c>
@@ -96934,7 +96934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4793" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4793" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4793">
         <v>25</v>
       </c>
@@ -96954,7 +96954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4794" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4794" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4794">
         <v>25</v>
       </c>
@@ -96974,7 +96974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4795" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4795" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4795">
         <v>25</v>
       </c>
@@ -96994,7 +96994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4796" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4796" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4796">
         <v>25</v>
       </c>
@@ -97014,7 +97014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4797" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4797" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4797">
         <v>25</v>
       </c>
@@ -97034,7 +97034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4798" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4798" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4798">
         <v>25</v>
       </c>
@@ -97054,7 +97054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4799" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4799" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4799">
         <v>25</v>
       </c>
@@ -97074,7 +97074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4800" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4800" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4800">
         <v>25</v>
       </c>
@@ -97094,7 +97094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4801" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4801" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4801">
         <v>25</v>
       </c>
@@ -97114,7 +97114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4802" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4802" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4802">
         <v>25</v>
       </c>
@@ -97134,7 +97134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4803" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4803" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4803">
         <v>25</v>
       </c>
@@ -97154,7 +97154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4804" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4804" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4804">
         <v>25</v>
       </c>
@@ -97174,7 +97174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4805" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4805" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4805">
         <v>25</v>
       </c>
@@ -97194,7 +97194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4806" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4806" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4806">
         <v>25</v>
       </c>
@@ -97214,7 +97214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4807" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4807" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4807">
         <v>25</v>
       </c>
@@ -97234,7 +97234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4808" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4808" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4808">
         <v>25</v>
       </c>
@@ -97254,7 +97254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4809" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4809" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4809">
         <v>25</v>
       </c>
@@ -97274,7 +97274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4810" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4810" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4810">
         <v>25</v>
       </c>
@@ -97294,7 +97294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4811" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4811" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4811">
         <v>25</v>
       </c>
@@ -97314,7 +97314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4812" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4812" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4812">
         <v>25</v>
       </c>
@@ -97334,7 +97334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4813" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4813" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4813">
         <v>25</v>
       </c>
@@ -97354,7 +97354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4814" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4814" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4814">
         <v>25</v>
       </c>
@@ -97374,7 +97374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4815" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4815" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4815">
         <v>25</v>
       </c>
@@ -97394,7 +97394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4816" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4816" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4816">
         <v>25</v>
       </c>
@@ -97414,7 +97414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4817" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4817" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4817">
         <v>25</v>
       </c>
@@ -97434,7 +97434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4818" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4818" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4818">
         <v>25</v>
       </c>
@@ -97454,7 +97454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4819" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4819" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4819">
         <v>25</v>
       </c>
@@ -97474,7 +97474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4820" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4820" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4820">
         <v>25</v>
       </c>
@@ -97494,7 +97494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4821" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4821" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4821">
         <v>25</v>
       </c>
@@ -97514,7 +97514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4822" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4822" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4822">
         <v>25</v>
       </c>
@@ -97534,7 +97534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4823" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4823" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4823">
         <v>25</v>
       </c>
@@ -97554,7 +97554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4824" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4824" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4824">
         <v>25</v>
       </c>
@@ -97574,7 +97574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4825" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4825" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4825">
         <v>25</v>
       </c>
@@ -97594,7 +97594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4826" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4826" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4826">
         <v>25</v>
       </c>
@@ -97614,7 +97614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4827" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4827" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4827">
         <v>25</v>
       </c>
@@ -97634,7 +97634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4828" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4828" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4828">
         <v>25</v>
       </c>
@@ -97654,7 +97654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4829" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4829" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4829">
         <v>25</v>
       </c>
@@ -97674,7 +97674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4830" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4830" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4830">
         <v>25</v>
       </c>
@@ -97694,7 +97694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4831" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4831" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4831">
         <v>25</v>
       </c>
@@ -97714,7 +97714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4832" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4832" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4832">
         <v>25</v>
       </c>
@@ -97734,7 +97734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4833" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4833" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4833">
         <v>25</v>
       </c>
@@ -97754,7 +97754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4834" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4834" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4834">
         <v>25</v>
       </c>
@@ -97774,7 +97774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4835" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4835" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4835">
         <v>25</v>
       </c>
@@ -97794,7 +97794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4836" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4836" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4836">
         <v>25</v>
       </c>
@@ -97814,7 +97814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4837" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4837" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4837">
         <v>25</v>
       </c>
@@ -97834,7 +97834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4838" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4838" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4838">
         <v>25</v>
       </c>
@@ -97854,7 +97854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4839" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4839" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4839">
         <v>25</v>
       </c>
@@ -97874,7 +97874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4840" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4840" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4840">
         <v>25</v>
       </c>
@@ -97894,7 +97894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4841" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4841" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4841">
         <v>25</v>
       </c>
@@ -97914,7 +97914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4842" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4842" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4842">
         <v>25</v>
       </c>
@@ -97934,7 +97934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4843" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4843" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4843">
         <v>25</v>
       </c>
@@ -97954,7 +97954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4844" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4844" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4844">
         <v>25</v>
       </c>
@@ -97974,7 +97974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4845" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4845" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4845">
         <v>25</v>
       </c>
@@ -97994,7 +97994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4846" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4846" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4846">
         <v>25</v>
       </c>
@@ -98014,7 +98014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4847" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4847" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4847">
         <v>25</v>
       </c>
@@ -98034,7 +98034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4848" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4848" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4848">
         <v>25</v>
       </c>
@@ -98054,7 +98054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4849" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4849" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4849">
         <v>25</v>
       </c>
@@ -98074,7 +98074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4850" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4850" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4850">
         <v>25</v>
       </c>
@@ -98094,7 +98094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4851" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4851" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4851">
         <v>25</v>
       </c>
@@ -98114,7 +98114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4852" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4852" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4852">
         <v>25</v>
       </c>
@@ -98134,7 +98134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4853" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4853" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4853">
         <v>25</v>
       </c>
@@ -98154,7 +98154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4854" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4854" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4854">
         <v>25</v>
       </c>
@@ -98174,7 +98174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4855" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4855" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4855">
         <v>25</v>
       </c>
@@ -98194,7 +98194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4856" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4856" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4856">
         <v>25</v>
       </c>
@@ -98214,7 +98214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4857" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4857" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4857">
         <v>25</v>
       </c>
@@ -98234,7 +98234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4858" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4858" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4858">
         <v>25</v>
       </c>
@@ -98254,7 +98254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4859" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4859" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4859">
         <v>25</v>
       </c>
@@ -98274,7 +98274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4860" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4860" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4860">
         <v>25</v>
       </c>
@@ -98294,7 +98294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4861" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4861" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4861">
         <v>25</v>
       </c>
@@ -98314,7 +98314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4862" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4862" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4862">
         <v>25</v>
       </c>
@@ -98334,7 +98334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4863" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4863" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4863">
         <v>25</v>
       </c>
@@ -98354,7 +98354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4864" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4864" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4864">
         <v>25</v>
       </c>
@@ -98374,7 +98374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4865" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4865" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4865">
         <v>25</v>
       </c>
@@ -98394,7 +98394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4866" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4866" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4866">
         <v>25</v>
       </c>
@@ -98414,7 +98414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4867" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4867" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4867">
         <v>25</v>
       </c>
@@ -98434,7 +98434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4868" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4868" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4868">
         <v>25</v>
       </c>
@@ -98454,7 +98454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4869" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4869" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4869">
         <v>25</v>
       </c>
@@ -98474,7 +98474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4870" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4870" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4870">
         <v>25</v>
       </c>
@@ -98494,7 +98494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4871" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4871" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4871">
         <v>25</v>
       </c>
@@ -98514,7 +98514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4872" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4872" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4872">
         <v>25</v>
       </c>
@@ -98534,7 +98534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4873" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4873" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4873">
         <v>25</v>
       </c>
@@ -98554,7 +98554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4874" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4874" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4874">
         <v>25</v>
       </c>
@@ -98574,7 +98574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4875" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4875" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4875">
         <v>25</v>
       </c>
@@ -98594,7 +98594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4876" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4876" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4876">
         <v>25</v>
       </c>
@@ -98614,7 +98614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4877" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4877" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4877">
         <v>25</v>
       </c>
@@ -98634,7 +98634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4878" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4878" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4878">
         <v>25</v>
       </c>
@@ -98654,7 +98654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4879" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4879" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4879">
         <v>25</v>
       </c>
@@ -98674,7 +98674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4880" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4880" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4880">
         <v>25</v>
       </c>
@@ -98694,7 +98694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4881" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4881" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4881">
         <v>25</v>
       </c>
@@ -98714,7 +98714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4882" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4882" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4882">
         <v>25</v>
       </c>
@@ -98734,7 +98734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4883" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4883" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4883">
         <v>25</v>
       </c>
@@ -98754,7 +98754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4884" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4884" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4884">
         <v>25</v>
       </c>
@@ -98774,7 +98774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4885" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4885" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4885">
         <v>25</v>
       </c>
@@ -98794,7 +98794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4886" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4886" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4886">
         <v>25</v>
       </c>
@@ -98814,7 +98814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4887" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4887" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4887">
         <v>25</v>
       </c>
@@ -98834,7 +98834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4888" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4888" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4888">
         <v>25</v>
       </c>
@@ -98854,7 +98854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4889" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4889" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4889">
         <v>25</v>
       </c>
@@ -98874,7 +98874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4890" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4890" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4890">
         <v>25</v>
       </c>
@@ -98894,7 +98894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4891" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4891" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4891">
         <v>25</v>
       </c>
@@ -98914,7 +98914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4892" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4892" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4892">
         <v>25</v>
       </c>
@@ -98934,7 +98934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4893" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4893" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4893">
         <v>25</v>
       </c>
@@ -98954,7 +98954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4894" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4894" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4894">
         <v>25</v>
       </c>
@@ -98974,7 +98974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4895" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4895" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4895">
         <v>25</v>
       </c>
@@ -98994,7 +98994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4896" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4896" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4896">
         <v>25</v>
       </c>
@@ -99014,7 +99014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4897" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4897" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4897">
         <v>25</v>
       </c>
@@ -99034,7 +99034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4898" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4898" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4898">
         <v>25</v>
       </c>
@@ -99054,7 +99054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4899" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4899" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4899">
         <v>25</v>
       </c>
@@ -99074,7 +99074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4900" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4900" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4900">
         <v>25</v>
       </c>
@@ -99094,7 +99094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4901" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4901" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4901">
         <v>25</v>
       </c>
@@ -99114,7 +99114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4902" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4902" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4902">
         <v>25</v>
       </c>
@@ -99134,7 +99134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4903" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4903" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4903">
         <v>25</v>
       </c>
@@ -99154,7 +99154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4904" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4904" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4904">
         <v>25</v>
       </c>
@@ -99174,7 +99174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4905" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4905" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4905">
         <v>25</v>
       </c>
@@ -99194,7 +99194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4906" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4906" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4906">
         <v>25</v>
       </c>
@@ -99214,7 +99214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4907" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4907" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4907">
         <v>25</v>
       </c>
@@ -99234,7 +99234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4908" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4908" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4908">
         <v>25</v>
       </c>
@@ -99254,7 +99254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4909" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4909" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4909">
         <v>25</v>
       </c>
@@ -99274,7 +99274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4910" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4910" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4910">
         <v>25</v>
       </c>
@@ -99294,7 +99294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4911" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4911" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4911">
         <v>25</v>
       </c>
@@ -99314,7 +99314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4912" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4912" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4912">
         <v>25</v>
       </c>
@@ -99334,7 +99334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4913" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4913" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4913">
         <v>25</v>
       </c>
@@ -99354,7 +99354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4914" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4914" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4914">
         <v>25</v>
       </c>
@@ -99374,7 +99374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4915" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4915" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4915">
         <v>25</v>
       </c>
@@ -99394,7 +99394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4916" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4916" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4916">
         <v>25</v>
       </c>
@@ -99414,7 +99414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4917" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4917" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4917">
         <v>25</v>
       </c>
@@ -99438,12 +99438,9 @@
   <autoFilter ref="A1:F4917">
     <filterColumn colId="0">
       <filters>
-        <filter val="1"/>
+        <filter val="25"/>
       </filters>
     </filterColumn>
-    <sortState ref="A2:F172">
-      <sortCondition ref="B1:B4917"/>
-    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
